--- a/biology/Zoologie/Coptosoma/Coptosoma.xlsx
+++ b/biology/Zoologie/Coptosoma/Coptosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coptosoma est un genre d'insectes hémiptères du sous-ordre des hétéroptères, des punaises de la famille des Plataspidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>BioLib recense 148 espèces, parmi lesquelles :
 Coptosoma costale Stål, 1853
@@ -520,12 +534,12 @@
 Coptosoma mucronatum Seidenstücker, 1963
 Coptosoma sandahli Reuter, 1881
 Coptosoma scutellatum (Geoffroy, 1785)
-Selon Fauna Europaea                                      (28 novembre 2021)[1] :
+Selon Fauna Europaea                                      (28 novembre 2021) :
 Coptosoma costale
 Coptosoma mucronatum
 Coptosoma sandahli
 Coptosoma scutellatum
-Selon NCBI  (28 novembre 2021)[2] :
+Selon NCBI  (28 novembre 2021) :
 Coptosoma bifaria
 Coptosoma bifarium
 Coptosoma biguttulum
